--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44ef44cf38014aed/Documents/GitHub/stockx-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{35545CA9-A7D2-BA45-8A7D-B56503770275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2471848E-0230-4717-8541-FF352FB827D1}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{35545CA9-A7D2-BA45-8A7D-B56503770275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AEC58359-86B4-4FE1-A880-6C1088CDC829}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -56,19 +56,22 @@
     <t>StockX Profit %</t>
   </si>
   <si>
-    <t>Yeezy 350 V2 Beluga 2.0</t>
-  </si>
-  <si>
     <t>StockX Ticker Symbol</t>
-  </si>
-  <si>
-    <t>Supreme Shoulder Bag (Black) SS18</t>
   </si>
   <si>
     <t>StockX Price</t>
   </si>
   <si>
     <t>Jordan 4 Retro Travis Scott Cactus Jack</t>
+  </si>
+  <si>
+    <t>AJ4-TSCCTSJCK</t>
+  </si>
+  <si>
+    <t>adidas Yeezy Boost 350 V2 Beluga 2.0</t>
+  </si>
+  <si>
+    <t>YZY350V2-BLGA2</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -147,19 +150,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -216,21 +206,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -271,27 +261,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -679,6 +648,30 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <top style="thick">
           <color indexed="64"/>
@@ -742,30 +735,6 @@
         <family val="2"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -780,8 +749,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="template" displayName="template" ref="A1:J5" totalsRowCount="1" headerRowDxfId="25" dataDxfId="23" totalsRowDxfId="21" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="template" displayName="template" ref="A1:J4" totalsRowCount="1" headerRowDxfId="28" dataDxfId="26" totalsRowDxfId="24" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:J3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="9">
       <totalsRowFormula>"Total Items: " &amp; SUBTOTAL(103,template[Item])</totalsRowFormula>
@@ -1110,12 +1079,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB1100"/>
+  <dimension ref="A1:AB1099"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A28" sqref="A28:XFD28"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1145,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -1176,34 +1145,36 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="12">
         <v>10</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="14">
         <v>225</v>
       </c>
       <c r="E2" s="14">
-        <f t="shared" ref="E2:E4" si="0">G2-D2</f>
+        <f t="shared" ref="E2:E3" si="0">G2-D2</f>
         <v>-225</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F4" si="1">(E2/D2)</f>
+        <f t="shared" ref="F2:F3" si="1">(E2/D2)</f>
         <v>-1</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="16">
-        <f t="shared" ref="H2:H4" si="2">G2*0.89</f>
+        <f t="shared" ref="H2:H3" si="2">G2*0.89</f>
         <v>0</v>
       </c>
       <c r="I2" s="16">
-        <f t="shared" ref="I2:I4" si="3">H2-D2</f>
+        <f t="shared" ref="I2:I3" si="3">H2-D2</f>
         <v>-225</v>
       </c>
       <c r="J2" s="17">
-        <f t="shared" ref="J2:J4" si="4">I2/D2</f>
+        <f t="shared" ref="J2:J3" si="4">I2/D2</f>
         <v>-1</v>
       </c>
       <c r="K2" s="1"/>
@@ -1224,14 +1195,16 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="23">
         <v>9.5</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="10">
         <v>220</v>
       </c>
@@ -1274,37 +1247,41 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>10</v>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="str">
+        <f>"Total Items: " &amp; SUBTOTAL(103,template[Item])</f>
+        <v>Total Items: 2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25">
-        <v>60</v>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7">
+        <f>SUBTOTAL(109,template[Price Paid])</f>
+        <v>445</v>
       </c>
-      <c r="E4" s="25">
-        <f t="shared" si="0"/>
-        <v>-60</v>
+      <c r="E4" s="8">
+        <f>SUBTOTAL(109,template[Profit])</f>
+        <v>-445</v>
       </c>
-      <c r="F4" s="26">
-        <f t="shared" si="1"/>
+      <c r="F4" s="9">
+        <f>SUBTOTAL(101,template[Profit %])</f>
         <v>-1</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="27">
-        <f t="shared" si="2"/>
+      <c r="G4" s="7">
+        <f>SUBTOTAL(109,template[StockX Price])</f>
         <v>0</v>
       </c>
-      <c r="I4" s="27">
-        <f t="shared" si="3"/>
-        <v>-60</v>
+      <c r="H4" s="7">
+        <f>SUBTOTAL(109,template[StockX Payout])</f>
+        <v>0</v>
       </c>
-      <c r="J4" s="28">
-        <f t="shared" si="4"/>
+      <c r="I4" s="7">
+        <f>SUBTOTAL(109,template[StockX Profit])</f>
+        <v>-445</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUBTOTAL(101,template[StockX Profit %])</f>
         <v>-1</v>
       </c>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1321,59 +1298,16 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
-        <f>"Total Items: " &amp; SUBTOTAL(103,template[Item])</f>
-        <v>Total Items: 3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7">
-        <f>SUBTOTAL(109,template[Price Paid])</f>
-        <v>505</v>
-      </c>
-      <c r="E5" s="8">
-        <f>SUBTOTAL(109,template[Profit])</f>
-        <v>-505</v>
-      </c>
-      <c r="F5" s="9">
-        <f>SUBTOTAL(101,template[Profit %])</f>
-        <v>-1</v>
-      </c>
-      <c r="G5" s="7">
-        <f>SUBTOTAL(109,template[StockX Price])</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <f>SUBTOTAL(109,template[StockX Payout])</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <f>SUBTOTAL(109,template[StockX Profit])</f>
-        <v>-505</v>
-      </c>
-      <c r="J5" s="4">
-        <f>SUBTOTAL(101,template[StockX Profit %])</f>
-        <v>-1</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1446,6 +1380,9 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1458,6 +1395,14 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1499,7 +1444,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1519,7 +1464,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1539,7 +1484,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1559,7 +1504,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1579,7 +1524,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1599,7 +1544,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1619,7 +1564,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1639,7 +1584,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1659,7 +1604,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1679,7 +1624,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1699,7 +1644,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1719,7 +1664,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1739,7 +1684,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1759,7 +1704,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1779,7 +1724,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1799,7 +1744,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1810,7 +1755,6 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1818,6 +1762,16 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -2428,7 +2382,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4400,7 +4354,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4411,25 +4365,8 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
-      <c r="Y122" s="1"/>
-      <c r="Z122" s="1"/>
-      <c r="AA122" s="1"/>
-      <c r="AB122" s="1"/>
-    </row>
-    <row r="123" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:28" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4440,6 +4377,23 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
     </row>
     <row r="124" spans="1:28" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
@@ -25728,16 +25682,6 @@
       <c r="AB857" s="1"/>
     </row>
     <row r="858" spans="1:28" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A858" s="1"/>
-      <c r="B858" s="1"/>
-      <c r="C858" s="1"/>
-      <c r="D858" s="1"/>
-      <c r="E858" s="1"/>
-      <c r="F858" s="1"/>
-      <c r="G858" s="1"/>
-      <c r="H858" s="1"/>
-      <c r="I858" s="1"/>
-      <c r="J858" s="1"/>
       <c r="L858" s="1"/>
       <c r="M858" s="1"/>
       <c r="N858" s="1"/>
@@ -30335,37 +30279,18 @@
       <c r="AA1099" s="1"/>
       <c r="AB1099" s="1"/>
     </row>
-    <row r="1100" spans="12:28" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1100" s="1"/>
-      <c r="M1100" s="1"/>
-      <c r="N1100" s="1"/>
-      <c r="O1100" s="1"/>
-      <c r="P1100" s="1"/>
-      <c r="Q1100" s="1"/>
-      <c r="R1100" s="1"/>
-      <c r="S1100" s="1"/>
-      <c r="T1100" s="1"/>
-      <c r="U1100" s="1"/>
-      <c r="V1100" s="1"/>
-      <c r="W1100" s="1"/>
-      <c r="X1100" s="1"/>
-      <c r="Y1100" s="1"/>
-      <c r="Z1100" s="1"/>
-      <c r="AA1100" s="1"/>
-      <c r="AB1100" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="I2:I5">
-    <cfRule type="expression" dxfId="28" priority="17">
+  <conditionalFormatting sqref="I2:I4">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>SEARCH("Nah", #REF!)&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="21" priority="18">
       <formula>SEARCH("Nah", #REF!)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J5">
-    <cfRule type="expression" dxfId="26" priority="22">
+  <conditionalFormatting sqref="A2:J4">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>SEARCH("Sell", #REF!)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
